--- a/clusterRes/LabRes.xlsx
+++ b/clusterRes/LabRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="15180"/>
+    <workbookView windowWidth="28800" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="LabRes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>实验条件ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Function0：简单加和</t>
   </si>
   <si>
+    <t>Function1：求平均值</t>
+  </si>
+  <si>
     <t>降维算法</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>实验条件 2-1-1-2</t>
   </si>
   <si>
-    <t>实验条件 2-1-2-2</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>同1-1-1-2</t>
+  </si>
+  <si>
+    <t>实验条件 1-1.5-1-2(wiki数据为Function0，test数据为Function1)</t>
   </si>
 </sst>
 </file>
@@ -700,11 +706,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1239,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1305,7 +1311,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
@@ -1313,16 +1321,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1330,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1343,31 +1351,29 @@
       </c>
     </row>
     <row r="8" spans="7:25">
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="Q8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="V8" s="2" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="7:25">
       <c r="G9" s="1" t="s">
@@ -1407,54 +1413,46 @@
       <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="7:25">
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.171</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.976</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.093</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
         <v>0.1</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.146</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.943</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>0.079</v>
       </c>
       <c r="Q10" s="1">
         <v>0.1</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="V10" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1463,26 +1461,26 @@
       <c r="G11" s="1">
         <v>0.3</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.203</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0.957</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.113</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <v>0.3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.216</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0.813</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>0.125</v>
       </c>
       <c r="Q11" s="1">
@@ -1491,9 +1489,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="V11" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1502,26 +1498,26 @@
       <c r="G12" s="1">
         <v>0.5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.214</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0.944</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0.121</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
         <v>0.5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0.26</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>0.711</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>0.159</v>
       </c>
       <c r="Q12" s="1">
@@ -1530,9 +1526,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="V12" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -1541,26 +1535,26 @@
       <c r="G13" s="1">
         <v>0.7</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.222</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.936</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.125</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
         <v>0.7</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>0.275</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>0.619</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>0.176</v>
       </c>
       <c r="Q13" s="1">
@@ -1569,9 +1563,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="V13" s="1">
-        <v>0.7</v>
-      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1580,26 +1572,26 @@
       <c r="G14" s="1">
         <v>0.9</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.228</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.931</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.13</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
         <v>0.9</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.264</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0.525</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>0.176</v>
       </c>
       <c r="Q14" s="1">
@@ -1608,9 +1600,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="V14" s="1">
-        <v>0.9</v>
-      </c>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1619,26 +1609,26 @@
       <c r="G15" s="1">
         <v>1.1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.233</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.923</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0.133</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <v>1.1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.25</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>0.443</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.174</v>
       </c>
       <c r="Q15" s="1">
@@ -1647,9 +1637,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="V15" s="1">
-        <v>1.1</v>
-      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1658,26 +1646,26 @@
       <c r="G16" s="1">
         <v>1.3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.238</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.917</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.136</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
         <v>1.3</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>0.226</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>0.356</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>0.165</v>
       </c>
       <c r="Q16" s="1">
@@ -1686,9 +1674,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="V16" s="1">
-        <v>1.3</v>
-      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -1697,26 +1683,26 @@
       <c r="G17" s="1">
         <v>1.5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>0.242</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0.907</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0.139</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
         <v>1.5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>0.203</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>0.275</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>0.161</v>
       </c>
       <c r="Q17" s="1">
@@ -1725,9 +1711,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="V17" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -1736,26 +1720,26 @@
       <c r="G18" s="1">
         <v>1.7</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>0.242</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0.874</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0.141</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
         <v>1.7</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>0.182</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>0.218</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>0.156</v>
       </c>
       <c r="Q18" s="1">
@@ -1764,9 +1748,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="V18" s="1">
-        <v>1.7</v>
-      </c>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -1775,26 +1757,26 @@
       <c r="G19" s="1">
         <v>1.9</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>0.235</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>0.796</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0.138</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
         <v>1.9</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>0.164</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>0.18</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>0.15</v>
       </c>
       <c r="Q19" s="1">
@@ -1803,9 +1785,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="V19" s="1">
-        <v>1.9</v>
-      </c>
+      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -1814,26 +1794,26 @@
       <c r="G20" s="1">
         <v>2.1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>0.203</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0.607</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>0.122</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
         <v>2.1</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>0.157</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>0.151</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>0.163</v>
       </c>
       <c r="Q20" s="1">
@@ -1842,19 +1822,195 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="V20" s="1">
-        <v>2.1</v>
-      </c>
+      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
+    <row r="22" spans="7:10">
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.173</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.208</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.942</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.931</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.229</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.918</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.234</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.906</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.239</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.899</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="G30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.896</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.892</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.257</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.835</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.134</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="R10:T20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/clusterRes/LabRes.xlsx
+++ b/clusterRes/LabRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14680"/>
+    <workbookView windowWidth="28800" windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="LabRes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>实验条件ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>实验条件 2-1-1-2</t>
   </si>
   <si>
+    <t>准确度</t>
+  </si>
+  <si>
     <t>eps</t>
   </si>
   <si>
@@ -79,10 +82,16 @@
     <t>r</t>
   </si>
   <si>
+    <t>word2vec(wiki+pku) 无提示词</t>
+  </si>
+  <si>
     <t>同1-1-1-2</t>
   </si>
   <si>
     <t>实验条件 1-1.5-1-2(wiki数据为Function0，test数据为Function1)</t>
+  </si>
+  <si>
+    <t>实验条件 1-2-1-2(wiki数据为Function0，test数据为Function1)</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1258,6 +1267,8 @@
     <col min="3" max="3" width="32.8461538461538" customWidth="1"/>
     <col min="4" max="4" width="21.9519230769231" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="22" max="22" width="32.0480769230769" customWidth="1"/>
+    <col min="23" max="23" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1370,51 +1381,59 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="7:25">
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="T9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9">
+        <v>0.133333333333333</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
@@ -1448,7 +1467,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1827,29 +1846,47 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="22" spans="7:10">
+    <row r="22" spans="7:15">
       <c r="G22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="7:10">
+      <c r="L22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="7:15">
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="7:10">
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15">
       <c r="G24" s="1">
         <v>0.1</v>
       </c>
@@ -1862,8 +1899,16 @@
       <c r="J24" s="2">
         <v>0.095</v>
       </c>
-    </row>
-    <row r="25" spans="7:10">
+      <c r="L24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="7:15">
       <c r="G25" s="1">
         <v>0.3</v>
       </c>
@@ -1876,8 +1921,14 @@
       <c r="J25" s="2">
         <v>0.117</v>
       </c>
-    </row>
-    <row r="26" spans="7:10">
+      <c r="L25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="7:15">
       <c r="G26" s="1">
         <v>0.5</v>
       </c>
@@ -1890,8 +1941,14 @@
       <c r="J26" s="2">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="27" spans="7:10">
+      <c r="L26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="7:15">
       <c r="G27" s="1">
         <v>0.7</v>
       </c>
@@ -1904,8 +1961,14 @@
       <c r="J27" s="2">
         <v>0.131</v>
       </c>
-    </row>
-    <row r="28" spans="7:10">
+      <c r="L27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="7:15">
       <c r="G28" s="1">
         <v>0.9</v>
       </c>
@@ -1918,8 +1981,14 @@
       <c r="J28" s="2">
         <v>0.134</v>
       </c>
-    </row>
-    <row r="29" spans="7:10">
+      <c r="L28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="7:15">
       <c r="G29" s="1">
         <v>1.1</v>
       </c>
@@ -1932,8 +2001,14 @@
       <c r="J29" s="2">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="30" spans="7:10">
+      <c r="L29" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="7:15">
       <c r="G30" s="1">
         <v>1.3</v>
       </c>
@@ -1946,8 +2021,14 @@
       <c r="J30" s="2">
         <v>0.141</v>
       </c>
-    </row>
-    <row r="31" spans="7:10">
+      <c r="L30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="7:15">
       <c r="G31" s="1">
         <v>1.5</v>
       </c>
@@ -1960,8 +2041,14 @@
       <c r="J31" s="2">
         <v>0.145</v>
       </c>
-    </row>
-    <row r="32" spans="7:10">
+      <c r="L31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="7:15">
       <c r="G32" s="1">
         <v>1.7</v>
       </c>
@@ -1974,8 +2061,14 @@
       <c r="J32" s="2">
         <v>0.149</v>
       </c>
-    </row>
-    <row r="33" spans="7:10">
+      <c r="L32" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="7:15">
       <c r="G33" s="1">
         <v>1.9</v>
       </c>
@@ -1988,8 +2081,14 @@
       <c r="J33" s="2">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="34" spans="7:10">
+      <c r="L33" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="7:15">
       <c r="G34" s="1">
         <v>2.1</v>
       </c>
@@ -2002,15 +2101,22 @@
       <c r="J34" s="2">
         <v>0.134</v>
       </c>
+      <c r="L34" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="V8:Y8"/>
     <mergeCell ref="G22:J22"/>
+    <mergeCell ref="L22:O22"/>
     <mergeCell ref="R10:T20"/>
+    <mergeCell ref="M24:O34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/clusterRes/LabRes.xlsx
+++ b/clusterRes/LabRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="15180"/>
+    <workbookView windowWidth="28800" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="LabRes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>实验条件ID</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>同1-1-1-2</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 3提示词</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 5提示词</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 10提示词</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 20提示词</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 30提示词</t>
   </si>
   <si>
     <t>实验条件 1-1.5-1-2(wiki数据为Function0，test数据为Function1)</t>
@@ -708,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,7 +1275,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1381,10 +1399,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="X8" s="1"/>
@@ -1428,10 +1446,10 @@
       <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <v>0.133333333333333</v>
       </c>
       <c r="X9" s="1"/>
@@ -1471,8 +1489,12 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="V10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.768992248062015</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
@@ -1508,8 +1530,12 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="V11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.741085271317829</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
@@ -1545,8 +1571,12 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="V12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0.648062015503876</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
@@ -1582,12 +1612,16 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="V13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0.537984496124031</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="7:25">
+    <row r="14" spans="7:24">
       <c r="G14" s="1">
         <v>0.9</v>
       </c>
@@ -1619,12 +1653,15 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="V14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.454263565891472</v>
+      </c>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="7:25">
+    </row>
+    <row r="15" spans="7:24">
       <c r="G15" s="1">
         <v>1.1</v>
       </c>
@@ -1659,7 +1696,6 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="7:25">
       <c r="G16" s="1">
@@ -1848,13 +1884,13 @@
     </row>
     <row r="22" spans="7:15">
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>

--- a/clusterRes/LabRes.xlsx
+++ b/clusterRes/LabRes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>实验条件ID</t>
   </si>
@@ -82,25 +82,31 @@
     <t>r</t>
   </si>
   <si>
-    <t>word2vec(wiki+pku) 无提示词</t>
+    <t>word2vec(wiki+pku) 无提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
     <t>同1-1-1-2</t>
   </si>
   <si>
-    <t>word2vec(wiki+pku) 3提示词</t>
-  </si>
-  <si>
-    <t>word2vec(wiki+pku) 5提示词</t>
-  </si>
-  <si>
-    <t>word2vec(wiki+pku) 10提示词</t>
-  </si>
-  <si>
-    <t>word2vec(wiki+pku) 20提示词</t>
-  </si>
-  <si>
-    <t>word2vec(wiki+pku) 30提示词</t>
+    <t>word2vec(wiki+pku) 3提示词+ERNIE-Bot-turbo</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 3提示词+ERNIE-Bot4.0</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 5提示词+ERNIE-Bot-turbo</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 10提示词+ERNIE-Bot-turbo</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 10提示词+ERNIE-Bot4.0</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 20提示词+ERNIE-Bot-turbo</t>
+  </si>
+  <si>
+    <t>word2vec(wiki+pku) 30提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
     <t>实验条件 1-1.5-1-2(wiki数据为Function0，test数据为Function1)</t>
@@ -1274,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1285,8 +1291,10 @@
     <col min="3" max="3" width="32.8461538461538" customWidth="1"/>
     <col min="4" max="4" width="21.9519230769231" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="22" max="22" width="32.0480769230769" customWidth="1"/>
+    <col min="22" max="22" width="47.75" customWidth="1"/>
     <col min="23" max="23" width="12.9230769230769"/>
+    <col min="24" max="24" width="48.5576923076923" customWidth="1"/>
+    <col min="25" max="25" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1399,10 +1407,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="X8" s="1"/>
@@ -1446,10 +1454,10 @@
       <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="1">
         <v>0.133333333333333</v>
       </c>
       <c r="X9" s="1"/>
@@ -1489,14 +1497,18 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="1">
         <v>0.768992248062015</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="X10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.91937984496124</v>
+      </c>
     </row>
     <row r="11" spans="7:25">
       <c r="G11" s="1">
@@ -1530,14 +1542,14 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="V11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="V11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="1">
         <v>0.741085271317829</v>
       </c>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="7:25">
       <c r="G12" s="1">
@@ -1571,14 +1583,18 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="V12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="V12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="1">
         <v>0.648062015503876</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.824806201550387</v>
+      </c>
     </row>
     <row r="13" spans="7:25">
       <c r="G13" s="1">
@@ -1612,16 +1628,16 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="V13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="4">
+      <c r="V13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="1">
         <v>0.537984496124031</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="7:24">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="7:23">
       <c r="G14" s="1">
         <v>0.9</v>
       </c>
@@ -1653,15 +1669,14 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="V14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="4">
+      <c r="V14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="1">
         <v>0.454263565891472</v>
       </c>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="7:24">
+    </row>
+    <row r="15" spans="7:20">
       <c r="G15" s="1">
         <v>1.1</v>
       </c>
@@ -1693,9 +1708,6 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
     </row>
     <row r="16" spans="7:25">
       <c r="G16" s="1">
@@ -1884,13 +1896,13 @@
     </row>
     <row r="22" spans="7:15">
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>

--- a/clusterRes/LabRes.xlsx
+++ b/clusterRes/LabRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14680"/>
+    <workbookView windowWidth="26860" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="LabRes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>实验条件ID</t>
   </si>
@@ -55,9 +55,33 @@
     <t>无</t>
   </si>
   <si>
+    <t>敏感度分析</t>
+  </si>
+  <si>
+    <t>暗语释义结果统计</t>
+  </si>
+  <si>
     <t>降维维度</t>
   </si>
   <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>PCA2d</t>
+  </si>
+  <si>
+    <t>词性</t>
+  </si>
+  <si>
+    <t>识别成功数</t>
+  </si>
+  <si>
+    <t>识别失败数</t>
+  </si>
+  <si>
+    <t>识别率</t>
+  </si>
+  <si>
     <t>实验条件 1-1-1-2</t>
   </si>
   <si>
@@ -70,7 +94,32 @@
     <t>准确度</t>
   </si>
   <si>
-    <t>eps</t>
+    <t>PCA3d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 名词 (Noun) - 表示人、事物、地点等。</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>f</t>
@@ -85,6 +134,34 @@
     <t>word2vec(wiki+pku) 无提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
+    <t>t-sne2d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 动词 (Verb) - 表示动作、状态或存在的行为。</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>同1-1-1-2</t>
   </si>
   <si>
@@ -94,25 +171,293 @@
     <t>word2vec(wiki+pku) 3提示词+ERNIE-Bot4.0</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 副词 (Adverb) - 用于修饰动词、形容词、其他副词等，表示程度、方式等。</t>
+    </r>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>word2vec(wiki+pku) 5提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 形容词 (Adjective) - 用于描述事物的性质或状态。</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>word2vec(wiki+pku) 10提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
     <t>word2vec(wiki+pku) 10提示词+ERNIE-Bot4.0</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 名动词 (Noun for Verb) - 有时表示名词和动词的混合，通常用作名词。</t>
+    </r>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
     <t>word2vec(wiki+pku) 20提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 连词 (Conjunction) - 用于连接词语，如“和”、“或”等。</t>
+    </r>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>word2vec(wiki+pku) 30提示词+ERNIE-Bot-turbo</t>
   </si>
   <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 人名 (Name of a Person) - 表示人的名字。</t>
+    </r>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 时间词 (Time Word) - 表示时间的词语。</t>
+    </r>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 地名 (Name of a Place) - 表示地点的名字。</t>
+    </r>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>a词性失败案例</t>
+  </si>
+  <si>
+    <t>句子</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
+    <t>提示词</t>
+  </si>
+  <si>
+    <t>大模型输出</t>
+  </si>
+  <si>
     <t>实验条件 1-1.5-1-2(wiki数据为Function0，test数据为Function1)</t>
   </si>
   <si>
     <t>实验条件 1-2-1-2(wiki数据为Function0，test数据为Function1)</t>
+  </si>
+  <si>
+    <t>并且可以_掩盖下肢的缺陷</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>['情书', '唱片', '电线', '孔子', '安全裤', '零度', '爵士', '完美', '后羿', '理科', '护照']</t>
+  </si>
+  <si>
+    <t>安全裤</t>
+  </si>
+  <si>
+    <t>防止_损坏发出刺耳的噪音</t>
+  </si>
+  <si>
+    <t>意外</t>
+  </si>
+  <si>
+    <t>['信仰', '意外', '政府', '喝酒', '仙人掌', '婚礼', '金属', '大副', '记号', '亚特兰提斯', '出口']</t>
+  </si>
+  <si>
+    <t>金属</t>
+  </si>
+  <si>
+    <t>n词性失败案例</t>
+  </si>
+  <si>
+    <t>在太透明的贴身的_上衣里面穿过于鲜艳的文胸</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>['白色', '偷窥', '家暴', '天王盖地虎']</t>
+  </si>
+  <si>
+    <t>抱歉，我无法提供此类信息。这种类型的信息涉及到低俗敏感的内容，可能会对用户和他人造成不良影响。建议遵守相关的社会道德规范，树立正确的价值导向，寻找合适的生活娱乐方式。</t>
+  </si>
+  <si>
+    <t>而不只是像个蠢蠢的_</t>
+  </si>
+  <si>
+    <t>钟摆</t>
+  </si>
+  <si>
+    <t>['耳环', '钟摆', '骗子', '茅台']</t>
+  </si>
+  <si>
+    <t>骗子</t>
+  </si>
+  <si>
+    <t>每当_变化</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>['练字本', '天气', '眼罩', '市场']</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>因为_的可塑性实在让时尚设计师们为之着迷不已</t>
+  </si>
+  <si>
+    <t>['王冠', '白色', '墨子', '破产']</t>
+  </si>
+  <si>
+    <t>王冠</t>
   </si>
 </sst>
 </file>
@@ -126,10 +471,17 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -599,16 +951,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,115 +966,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,8 +1094,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,12 +1364,2566 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00632B8E"/>
+      <color rgb="008337BD"/>
+      <color rgb="00A3A0A6"/>
+      <color rgb="00642D8F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>不同降维算法和降维维度灵敏度分析</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LabRes!$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA2d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="8337BD"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8337BD"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LabRes!$AC$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LabRes!$AC$7:$AM$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LabRes!$AB$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA3d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="632B8E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="632B8E"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LabRes!$AC$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LabRes!$AC$8:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LabRes!$AB$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t-sne2d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LabRes!$AC$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LabRes!$AC$9:$AM$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="17003563"/>
+        <c:axId val="50899228"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>LabRes!$AB$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>eps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>LabRes!$AC$6:$AM$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>LabRes!$AC$6:$AM$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17003563"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>eps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50899228"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50899228"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17003563"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Vector Aggerator</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>实现效果灵敏度分析</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LabRes!$AB$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="632B8E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="642D8F"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>LabRes!$AC$14:$AH$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LabRes!$AB$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="89000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>LabRes!$AC$15:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53303806"/>
+        <c:axId val="490019346"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>LabRes!$AB$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>eps</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>LabRes!$AC$13:$AH$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53303806"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>eps</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.431422252466825"/>
+              <c:y val="0.927436366193222"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490019346"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="490019346"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53303806"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1707515</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="25735280" y="4343400"/>
+        <a:ext cx="7785735" cy="4534535"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>197485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>240665</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="33833435" y="4175125"/>
+        <a:ext cx="7525385" cy="4902200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,10 +4184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:BB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BB17" sqref="BB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1295,6 +4201,13 @@
     <col min="23" max="23" width="12.9230769230769"/>
     <col min="24" max="24" width="48.5576923076923" customWidth="1"/>
     <col min="25" max="25" width="12.9230769230769"/>
+    <col min="46" max="46" width="85.9903846153846" customWidth="1"/>
+    <col min="48" max="48" width="17.3942307692308" customWidth="1"/>
+    <col min="49" max="49" width="16.25" customWidth="1"/>
+    <col min="50" max="50" width="17.625" customWidth="1"/>
+    <col min="51" max="51" width="35.0673076923077" customWidth="1"/>
+    <col min="53" max="53" width="32.75" customWidth="1"/>
+    <col min="54" max="54" width="12.1057692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1353,7 +4266,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:46">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1369,13 +4282,19 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AB5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1386,23 +4305,109 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6">
+        <v>0.1</v>
+      </c>
+      <c r="AD6">
+        <v>0.3</v>
+      </c>
+      <c r="AE6">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0.7</v>
+      </c>
+      <c r="AG6">
+        <v>0.9</v>
+      </c>
+      <c r="AH6">
+        <v>1.1</v>
+      </c>
+      <c r="AI6">
+        <v>1.3</v>
+      </c>
+      <c r="AJ6">
+        <v>1.5</v>
+      </c>
+      <c r="AK6">
+        <v>1.7</v>
+      </c>
+      <c r="AL6">
+        <v>1.9</v>
+      </c>
+      <c r="AM6">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="8" spans="7:25">
+    <row r="7" spans="28:50">
+      <c r="AB7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7">
+        <v>0.154</v>
+      </c>
+      <c r="AD7">
+        <v>0.167</v>
+      </c>
+      <c r="AE7">
+        <v>0.188</v>
+      </c>
+      <c r="AF7">
+        <v>0.192</v>
+      </c>
+      <c r="AG7">
+        <v>0.201</v>
+      </c>
+      <c r="AH7">
+        <v>0.223</v>
+      </c>
+      <c r="AI7">
+        <v>0.233</v>
+      </c>
+      <c r="AJ7">
+        <v>0.232</v>
+      </c>
+      <c r="AK7">
+        <v>0.221</v>
+      </c>
+      <c r="AL7">
+        <v>0.202</v>
+      </c>
+      <c r="AM7">
+        <v>0.199</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="7:50">
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1411,59 +4416,163 @@
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
+      <c r="AB8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8">
+        <v>0.189</v>
+      </c>
+      <c r="AD8">
+        <v>0.195</v>
+      </c>
+      <c r="AE8">
+        <v>0.22</v>
+      </c>
+      <c r="AF8">
+        <v>0.239</v>
+      </c>
+      <c r="AG8">
+        <v>0.244</v>
+      </c>
+      <c r="AH8">
+        <v>0.254</v>
+      </c>
+      <c r="AI8">
+        <v>0.252</v>
+      </c>
+      <c r="AJ8">
+        <v>0.249</v>
+      </c>
+      <c r="AK8">
+        <v>0.23</v>
+      </c>
+      <c r="AL8">
+        <v>0.211</v>
+      </c>
+      <c r="AM8">
+        <v>0.19</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV8">
+        <v>357</v>
+      </c>
+      <c r="AW8">
+        <v>31</v>
+      </c>
+      <c r="AX8">
+        <f>AV8/(AV8+AW8)</f>
+        <v>0.920103092783505</v>
+      </c>
     </row>
-    <row r="9" spans="7:25">
+    <row r="9" ht="18" spans="7:50">
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="W9" s="1">
         <v>0.133333333333333</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
+      <c r="AB9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9">
+        <v>0.252</v>
+      </c>
+      <c r="AD9">
+        <v>0.284</v>
+      </c>
+      <c r="AE9">
+        <v>0.292</v>
+      </c>
+      <c r="AF9">
+        <v>0.299</v>
+      </c>
+      <c r="AG9">
+        <v>0.281</v>
+      </c>
+      <c r="AH9">
+        <v>0.279</v>
+      </c>
+      <c r="AI9">
+        <v>0.277</v>
+      </c>
+      <c r="AJ9">
+        <v>0.272</v>
+      </c>
+      <c r="AK9">
+        <v>0.221</v>
+      </c>
+      <c r="AL9">
+        <v>0.18</v>
+      </c>
+      <c r="AM9">
+        <v>0.143</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV9">
+        <v>79</v>
+      </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" ref="AX9:AX16" si="0">AV9/(AV9+AW9)</f>
+        <v>0.951807228915663</v>
+      </c>
     </row>
-    <row r="10" spans="7:25">
+    <row r="10" ht="18" spans="7:50">
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
@@ -1493,24 +4602,40 @@
         <v>0.1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="W10" s="1">
         <v>0.768992248062015</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="1">
         <v>0.91937984496124</v>
       </c>
+      <c r="AT10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV10">
+        <v>21</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
     </row>
-    <row r="11" spans="7:25">
+    <row r="11" ht="18" spans="7:50">
       <c r="G11" s="1">
         <v>0.3</v>
       </c>
@@ -1543,15 +4668,31 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="W11" s="1">
         <v>0.741085271317829</v>
       </c>
       <c r="X11" s="1"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="1"/>
+      <c r="AT11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV11">
+        <v>27</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="0"/>
+        <v>0.964285714285714</v>
+      </c>
     </row>
-    <row r="12" spans="7:25">
+    <row r="12" ht="18" spans="7:50">
       <c r="G12" s="1">
         <v>0.5</v>
       </c>
@@ -1584,19 +4725,38 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="W12" s="1">
         <v>0.648062015503876</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="4">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="1">
         <v>0.824806201550387</v>
       </c>
+      <c r="AB12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV12">
+        <v>23</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="13" spans="7:25">
+    <row r="13" ht="18" spans="7:50">
       <c r="G13" s="1">
         <v>0.7</v>
       </c>
@@ -1629,15 +4789,53 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="W13" s="1">
         <v>0.537984496124031</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="AB13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13">
+        <v>1.1</v>
+      </c>
+      <c r="AD13">
+        <v>1.3</v>
+      </c>
+      <c r="AE13">
+        <v>1.5</v>
+      </c>
+      <c r="AF13">
+        <v>1.7</v>
+      </c>
+      <c r="AG13">
+        <v>1.9</v>
+      </c>
+      <c r="AH13">
+        <v>2.1</v>
+      </c>
+      <c r="AI13"/>
+      <c r="AT13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV13">
+        <v>19</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="0"/>
+        <v>0.904761904761905</v>
+      </c>
     </row>
-    <row r="14" spans="7:23">
+    <row r="14" ht="18" spans="7:50">
       <c r="G14" s="1">
         <v>0.9</v>
       </c>
@@ -1670,13 +4868,50 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="W14" s="1">
         <v>0.454263565891472</v>
       </c>
+      <c r="AB14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14">
+        <v>0.228</v>
+      </c>
+      <c r="AD14">
+        <v>0.233</v>
+      </c>
+      <c r="AE14">
+        <v>0.242</v>
+      </c>
+      <c r="AF14">
+        <v>0.242</v>
+      </c>
+      <c r="AG14">
+        <v>0.235</v>
+      </c>
+      <c r="AH14">
+        <v>0.203</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV14">
+        <v>13</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
     </row>
-    <row r="15" spans="7:20">
+    <row r="15" ht="18" spans="7:50">
       <c r="G15" s="1">
         <v>1.1</v>
       </c>
@@ -1708,8 +4943,45 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="AB15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC15">
+        <v>0.222</v>
+      </c>
+      <c r="AD15">
+        <v>0.23</v>
+      </c>
+      <c r="AE15">
+        <v>0.25</v>
+      </c>
+      <c r="AF15">
+        <v>0.255</v>
+      </c>
+      <c r="AG15">
+        <v>0.257</v>
+      </c>
+      <c r="AH15">
+        <v>0.221</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV15">
+        <v>25</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="0"/>
+        <v>0.892857142857143</v>
+      </c>
     </row>
-    <row r="16" spans="7:25">
+    <row r="16" ht="18" spans="7:50">
       <c r="G16" s="1">
         <v>1.3</v>
       </c>
@@ -1745,6 +5017,22 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
+      <c r="AT16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV16">
+        <v>13</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="17" spans="7:25">
       <c r="G17" s="1">
@@ -1894,47 +5182,88 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="22" spans="7:15">
+    <row r="21" spans="50:54">
+      <c r="AX21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="7:54">
       <c r="G22" s="3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
+      <c r="AY22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="23" spans="7:15">
+    <row r="23" spans="7:54">
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="24" spans="7:15">
+    <row r="24" spans="7:54">
       <c r="G24" s="1">
         <v>0.1</v>
       </c>
@@ -1951,12 +5280,27 @@
         <v>0.1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
+      <c r="AX24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="25" spans="7:15">
+    <row r="25" spans="7:54">
       <c r="G25" s="1">
         <v>0.3</v>
       </c>
@@ -1975,8 +5319,20 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
+      <c r="AY25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="26" spans="7:15">
+    <row r="26" spans="7:54">
       <c r="G26" s="1">
         <v>0.5</v>
       </c>
@@ -1995,8 +5351,20 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
+      <c r="AY26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="27" spans="7:15">
+    <row r="27" spans="7:54">
       <c r="G27" s="1">
         <v>0.7</v>
       </c>
@@ -2015,6 +5383,18 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
+      <c r="AY27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="7:15">
       <c r="G28" s="1">
@@ -2168,5 +5548,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>